--- a/Data/Modeling Stage/Results/IMS/Non temporal models/ensemble_models_no_assign_results_Date_threshold_50_1_replicas_SMOTE.xlsx
+++ b/Data/Modeling Stage/Results/IMS/Non temporal models/ensemble_models_no_assign_results_Date_threshold_50_1_replicas_SMOTE.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="183">
   <si>
     <t>Baseline - Majority Class</t>
   </si>
@@ -79,499 +79,493 @@
     <t>0.1+/-0.3</t>
   </si>
   <si>
+    <t>0.001+/-0.0</t>
+  </si>
+  <si>
+    <t>0.87+/-0.002</t>
+  </si>
+  <si>
+    <t>0.805+/-0.0</t>
+  </si>
+  <si>
+    <t>0.716</t>
+  </si>
+  <si>
+    <t>0.844+/-0.004</t>
+  </si>
+  <si>
+    <t>0.786+/-0.014</t>
+  </si>
+  <si>
+    <t>0.356</t>
+  </si>
+  <si>
+    <t>0.907+/-0.003</t>
+  </si>
+  <si>
+    <t>0.838+/-0.01</t>
+  </si>
+  <si>
+    <t>0.504</t>
+  </si>
+  <si>
+    <t>9.539+/-0.401</t>
+  </si>
+  <si>
+    <t>0.751+/-0.003</t>
+  </si>
+  <si>
+    <t>0.742+/-0.0</t>
+  </si>
+  <si>
+    <t>0.673</t>
+  </si>
+  <si>
+    <t>0.747+/-0.003</t>
+  </si>
+  <si>
+    <t>0.739+/-0.014</t>
+  </si>
+  <si>
+    <t>0.306</t>
+  </si>
+  <si>
+    <t>0.759+/-0.004</t>
+  </si>
+  <si>
+    <t>0.749+/-0.021</t>
+  </si>
+  <si>
+    <t>0.488</t>
+  </si>
+  <si>
+    <t>1.744+/-0.084</t>
+  </si>
+  <si>
+    <t>0.86+/-0.003</t>
+  </si>
+  <si>
+    <t>0.832+/-0.0</t>
+  </si>
+  <si>
+    <t>0.751</t>
+  </si>
+  <si>
+    <t>0.878+/-0.004</t>
+  </si>
+  <si>
+    <t>0.848+/-0.013</t>
+  </si>
+  <si>
+    <t>0.378</t>
+  </si>
+  <si>
+    <t>0.837+/-0.004</t>
+  </si>
+  <si>
+    <t>0.809+/-0.017</t>
+  </si>
+  <si>
+    <t>0.365</t>
+  </si>
+  <si>
+    <t>7.379+/-0.593</t>
+  </si>
+  <si>
+    <t>0.709+/-0.002</t>
+  </si>
+  <si>
+    <t>0.689+/-0.0</t>
+  </si>
+  <si>
+    <t>0.637</t>
+  </si>
+  <si>
+    <t>0.696+/-0.003</t>
+  </si>
+  <si>
+    <t>0.677+/-0.013</t>
+  </si>
+  <si>
+    <t>0.3</t>
+  </si>
+  <si>
+    <t>0.741+/-0.007</t>
+  </si>
+  <si>
+    <t>0.721+/-0.015</t>
+  </si>
+  <si>
+    <t>0.603</t>
+  </si>
+  <si>
+    <t>1.041+/-0.019</t>
+  </si>
+  <si>
+    <t>0.85</t>
+  </si>
+  <si>
+    <t>0.889+/-0.002</t>
+  </si>
+  <si>
+    <t>0.834+/-0.0</t>
+  </si>
+  <si>
+    <t>0.756</t>
+  </si>
+  <si>
+    <t>0.867+/-0.003</t>
+  </si>
+  <si>
+    <t>0.815+/-0.011</t>
+  </si>
+  <si>
+    <t>0.301</t>
+  </si>
+  <si>
+    <t>0.92+/-0.002</t>
+  </si>
+  <si>
+    <t>0.866+/-0.014</t>
+  </si>
+  <si>
+    <t>0.473</t>
+  </si>
+  <si>
+    <t>10.059+/-0.071</t>
+  </si>
+  <si>
+    <t>0.773+/-0.004</t>
+  </si>
+  <si>
+    <t>0.765+/-0.0</t>
+  </si>
+  <si>
+    <t>0.713</t>
+  </si>
+  <si>
+    <t>0.768+/-0.005</t>
+  </si>
+  <si>
+    <t>0.758+/-0.012</t>
+  </si>
+  <si>
+    <t>0.254</t>
+  </si>
+  <si>
+    <t>0.784+/-0.006</t>
+  </si>
+  <si>
+    <t>0.778+/-0.015</t>
+  </si>
+  <si>
+    <t>1.976+/-0.028</t>
+  </si>
+  <si>
+    <t>0.883+/-0.002</t>
+  </si>
+  <si>
+    <t>0.863+/-0.0</t>
+  </si>
+  <si>
+    <t>0.799</t>
+  </si>
+  <si>
+    <t>0.893+/-0.003</t>
+  </si>
+  <si>
+    <t>0.874+/-0.009</t>
+  </si>
+  <si>
+    <t>0.346</t>
+  </si>
+  <si>
+    <t>0.869+/-0.002</t>
+  </si>
+  <si>
+    <t>0.848+/-0.006</t>
+  </si>
+  <si>
+    <t>0.384</t>
+  </si>
+  <si>
+    <t>8.053+/-0.067</t>
+  </si>
+  <si>
+    <t>0.725+/-0.003</t>
+  </si>
+  <si>
+    <t>0.709+/-0.0</t>
+  </si>
+  <si>
+    <t>0.664</t>
+  </si>
+  <si>
+    <t>0.725+/-0.002</t>
+  </si>
+  <si>
+    <t>0.708+/-0.015</t>
+  </si>
+  <si>
+    <t>0.234</t>
+  </si>
+  <si>
+    <t>0.727+/-0.009</t>
+  </si>
+  <si>
+    <t>0.711+/-0.016</t>
+  </si>
+  <si>
+    <t>0.545</t>
+  </si>
+  <si>
+    <t>0.827+/-0.016</t>
+  </si>
+  <si>
+    <t>0.723</t>
+  </si>
+  <si>
+    <t>0.15+/-0.229</t>
+  </si>
+  <si>
+    <t>0.3+/-0.458</t>
+  </si>
+  <si>
     <t>0.0+/-0.0</t>
   </si>
   <si>
-    <t>0.869+/-0.002</t>
-  </si>
-  <si>
-    <t>0.804+/-0.0</t>
-  </si>
-  <si>
-    <t>0.719</t>
-  </si>
-  <si>
-    <t>0.849+/-0.003</t>
-  </si>
-  <si>
-    <t>0.789+/-0.015</t>
-  </si>
-  <si>
-    <t>0.355</t>
-  </si>
-  <si>
-    <t>0.897+/-0.002</t>
-  </si>
-  <si>
-    <t>0.829+/-0.014</t>
-  </si>
-  <si>
-    <t>0.485</t>
-  </si>
-  <si>
-    <t>8.092+/-0.051</t>
-  </si>
-  <si>
-    <t>0.766+/-0.003</t>
-  </si>
-  <si>
-    <t>0.758+/-0.0</t>
-  </si>
-  <si>
-    <t>0.705</t>
-  </si>
-  <si>
-    <t>0.776+/-0.004</t>
-  </si>
-  <si>
-    <t>0.767+/-0.016</t>
-  </si>
-  <si>
-    <t>0.326</t>
-  </si>
-  <si>
-    <t>0.749+/-0.005</t>
-  </si>
-  <si>
-    <t>0.741+/-0.017</t>
-  </si>
-  <si>
-    <t>0.432</t>
-  </si>
-  <si>
-    <t>1.602+/-0.05</t>
-  </si>
-  <si>
-    <t>0.868+/-0.002</t>
-  </si>
-  <si>
-    <t>0.843+/-0.0</t>
-  </si>
-  <si>
-    <t>0.772</t>
-  </si>
-  <si>
-    <t>0.909+/-0.002</t>
-  </si>
-  <si>
-    <t>0.883+/-0.009</t>
+    <t>0.751+/-0.0</t>
+  </si>
+  <si>
+    <t>0.68</t>
+  </si>
+  <si>
+    <t>0.901+/-0.002</t>
+  </si>
+  <si>
+    <t>0.789+/-0.013</t>
+  </si>
+  <si>
+    <t>0.397</t>
+  </si>
+  <si>
+    <t>0.828+/-0.004</t>
+  </si>
+  <si>
+    <t>0.684+/-0.024</t>
+  </si>
+  <si>
+    <t>8.546+/-0.054</t>
+  </si>
+  <si>
+    <t>0.701+/-0.004</t>
+  </si>
+  <si>
+    <t>0.691+/-0.0</t>
+  </si>
+  <si>
+    <t>0.656</t>
+  </si>
+  <si>
+    <t>0.72+/-0.005</t>
+  </si>
+  <si>
+    <t>0.708+/-0.016</t>
+  </si>
+  <si>
+    <t>0.392</t>
+  </si>
+  <si>
+    <t>0.657+/-0.009</t>
+  </si>
+  <si>
+    <t>0.649+/-0.023</t>
+  </si>
+  <si>
+    <t>0.441</t>
+  </si>
+  <si>
+    <t>1.568+/-0.077</t>
+  </si>
+  <si>
+    <t>0.806+/-0.002</t>
+  </si>
+  <si>
+    <t>0.768+/-0.0</t>
+  </si>
+  <si>
+    <t>0.699</t>
+  </si>
+  <si>
+    <t>0.901+/-0.004</t>
+  </si>
+  <si>
+    <t>0.853+/-0.016</t>
   </si>
   <si>
     <t>0.413</t>
   </si>
   <si>
-    <t>0.818+/-0.003</t>
-  </si>
-  <si>
-    <t>0.791+/-0.013</t>
-  </si>
-  <si>
-    <t>0.309</t>
-  </si>
-  <si>
-    <t>6.617+/-0.045</t>
-  </si>
-  <si>
-    <t>0.705+/-0.003</t>
-  </si>
-  <si>
-    <t>0.687+/-0.0</t>
-  </si>
-  <si>
-    <t>0.631</t>
-  </si>
-  <si>
-    <t>0.688+/-0.005</t>
-  </si>
-  <si>
-    <t>0.672+/-0.012</t>
-  </si>
-  <si>
-    <t>0.296</t>
-  </si>
-  <si>
-    <t>0.748+/-0.008</t>
-  </si>
-  <si>
-    <t>0.732+/-0.019</t>
-  </si>
-  <si>
-    <t>0.605</t>
-  </si>
-  <si>
-    <t>0.633+/-0.019</t>
-  </si>
-  <si>
-    <t>0.85</t>
-  </si>
-  <si>
-    <t>0.89+/-0.003</t>
-  </si>
-  <si>
-    <t>0.837+/-0.0</t>
-  </si>
-  <si>
-    <t>0.751</t>
-  </si>
-  <si>
-    <t>0.863+/-0.005</t>
-  </si>
-  <si>
-    <t>0.814+/-0.011</t>
-  </si>
-  <si>
-    <t>0.288</t>
-  </si>
-  <si>
-    <t>0.927+/-0.002</t>
-  </si>
-  <si>
-    <t>0.874+/-0.015</t>
-  </si>
-  <si>
-    <t>0.452</t>
-  </si>
-  <si>
-    <t>8.77+/-0.154</t>
-  </si>
-  <si>
-    <t>0.772+/-0.003</t>
-  </si>
-  <si>
-    <t>0.763+/-0.0</t>
-  </si>
-  <si>
-    <t>0.717</t>
-  </si>
-  <si>
-    <t>0.763+/-0.004</t>
-  </si>
-  <si>
-    <t>0.755+/-0.009</t>
-  </si>
-  <si>
-    <t>0.268</t>
-  </si>
-  <si>
-    <t>0.788+/-0.005</t>
-  </si>
-  <si>
-    <t>0.78+/-0.019</t>
-  </si>
-  <si>
-    <t>0.513</t>
-  </si>
-  <si>
-    <t>1.64+/-0.016</t>
-  </si>
-  <si>
-    <t>0.881+/-0.003</t>
-  </si>
-  <si>
-    <t>0.859+/-0.0</t>
-  </si>
-  <si>
-    <t>0.794</t>
-  </si>
-  <si>
-    <t>0.891+/-0.004</t>
-  </si>
-  <si>
-    <t>0.868+/-0.011</t>
-  </si>
-  <si>
-    <t>0.332</t>
-  </si>
-  <si>
-    <t>0.869+/-0.003</t>
-  </si>
-  <si>
-    <t>0.847+/-0.015</t>
-  </si>
-  <si>
-    <t>0.373</t>
-  </si>
-  <si>
-    <t>6.888+/-0.062</t>
-  </si>
-  <si>
-    <t>0.724+/-0.002</t>
-  </si>
-  <si>
-    <t>0.707+/-0.0</t>
-  </si>
-  <si>
-    <t>0.675</t>
-  </si>
-  <si>
-    <t>0.729+/-0.004</t>
-  </si>
-  <si>
-    <t>0.713+/-0.015</t>
-  </si>
-  <si>
-    <t>0.243</t>
-  </si>
-  <si>
-    <t>0.711+/-0.005</t>
-  </si>
-  <si>
-    <t>0.696+/-0.013</t>
-  </si>
-  <si>
-    <t>0.552</t>
-  </si>
-  <si>
-    <t>0.673+/-0.021</t>
-  </si>
-  <si>
-    <t>0.723</t>
-  </si>
-  <si>
-    <t>0.15+/-0.229</t>
-  </si>
-  <si>
-    <t>0.3+/-0.458</t>
-  </si>
-  <si>
-    <t>0.88+/-0.001</t>
-  </si>
-  <si>
-    <t>0.674</t>
-  </si>
-  <si>
-    <t>0.903+/-0.002</t>
-  </si>
-  <si>
-    <t>0.779+/-0.015</t>
-  </si>
-  <si>
-    <t>0.39</t>
-  </si>
-  <si>
-    <t>0.852+/-0.003</t>
-  </si>
-  <si>
-    <t>0.72+/-0.019</t>
-  </si>
-  <si>
-    <t>0.317</t>
-  </si>
-  <si>
-    <t>6.945+/-0.103</t>
-  </si>
-  <si>
-    <t>0.711+/-0.004</t>
-  </si>
-  <si>
-    <t>0.701+/-0.0</t>
-  </si>
-  <si>
-    <t>0.655</t>
-  </si>
-  <si>
-    <t>0.731+/-0.004</t>
-  </si>
-  <si>
-    <t>0.72+/-0.018</t>
+    <t>0.689+/-0.005</t>
+  </si>
+  <si>
+    <t>0.647+/-0.018</t>
+  </si>
+  <si>
+    <t>0.204</t>
+  </si>
+  <si>
+    <t>6.203+/-0.27</t>
+  </si>
+  <si>
+    <t>0.664+/-0.003</t>
+  </si>
+  <si>
+    <t>0.623+/-0.0</t>
+  </si>
+  <si>
+    <t>0.601</t>
+  </si>
+  <si>
+    <t>0.658+/-0.003</t>
+  </si>
+  <si>
+    <t>0.619+/-0.01</t>
+  </si>
+  <si>
+    <t>0.354</t>
+  </si>
+  <si>
+    <t>0.682+/-0.007</t>
+  </si>
+  <si>
+    <t>0.644+/-0.018</t>
+  </si>
+  <si>
+    <t>0.534</t>
+  </si>
+  <si>
+    <t>0.944+/-0.027</t>
+  </si>
+  <si>
+    <t>0.692</t>
+  </si>
+  <si>
+    <t>0.25+/-0.25</t>
+  </si>
+  <si>
+    <t>0.5+/-0.5</t>
+  </si>
+  <si>
+    <t>0.854+/-0.004</t>
+  </si>
+  <si>
+    <t>0.724+/-0.0</t>
+  </si>
+  <si>
+    <t>0.652</t>
+  </si>
+  <si>
+    <t>0.881+/-0.005</t>
+  </si>
+  <si>
+    <t>0.753+/-0.014</t>
+  </si>
+  <si>
+    <t>0.416</t>
+  </si>
+  <si>
+    <t>0.818+/-0.006</t>
+  </si>
+  <si>
+    <t>0.666+/-0.016</t>
+  </si>
+  <si>
+    <t>0.323</t>
+  </si>
+  <si>
+    <t>8.353+/-0.459</t>
+  </si>
+  <si>
+    <t>0.673+/-0.002</t>
+  </si>
+  <si>
+    <t>0.66+/-0.0</t>
+  </si>
+  <si>
+    <t>0.619</t>
+  </si>
+  <si>
+    <t>0.689+/-0.003</t>
+  </si>
+  <si>
+    <t>0.674+/-0.01</t>
   </si>
   <si>
     <t>0.385</t>
   </si>
   <si>
-    <t>0.666+/-0.007</t>
-  </si>
-  <si>
-    <t>0.659+/-0.027</t>
-  </si>
-  <si>
-    <t>0.412</t>
-  </si>
-  <si>
-    <t>1.506+/-0.02</t>
-  </si>
-  <si>
-    <t>0.814+/-0.001</t>
-  </si>
-  <si>
-    <t>0.777+/-0.0</t>
-  </si>
-  <si>
-    <t>0.703</t>
-  </si>
-  <si>
-    <t>0.906+/-0.003</t>
-  </si>
-  <si>
-    <t>0.859+/-0.008</t>
-  </si>
-  <si>
-    <t>0.427</t>
-  </si>
-  <si>
-    <t>0.701+/-0.004</t>
-  </si>
-  <si>
-    <t>0.663+/-0.013</t>
-  </si>
-  <si>
-    <t>0.216</t>
-  </si>
-  <si>
-    <t>6.255+/-0.03</t>
-  </si>
-  <si>
-    <t>0.657+/-0.002</t>
-  </si>
-  <si>
-    <t>0.619+/-0.0</t>
-  </si>
-  <si>
-    <t>0.588</t>
-  </si>
-  <si>
-    <t>0.655+/-0.003</t>
-  </si>
-  <si>
-    <t>0.617+/-0.015</t>
-  </si>
-  <si>
-    <t>0.347</t>
-  </si>
-  <si>
-    <t>0.666+/-0.012</t>
-  </si>
-  <si>
-    <t>0.63+/-0.023</t>
-  </si>
-  <si>
-    <t>0.553</t>
-  </si>
-  <si>
-    <t>0.598+/-0.035</t>
-  </si>
-  <si>
-    <t>0.692</t>
-  </si>
-  <si>
-    <t>0.25+/-0.25</t>
-  </si>
-  <si>
-    <t>0.5+/-0.5</t>
-  </si>
-  <si>
-    <t>0.86+/-0.004</t>
-  </si>
-  <si>
-    <t>0.726+/-0.0</t>
-  </si>
-  <si>
-    <t>0.651</t>
-  </si>
-  <si>
-    <t>0.885+/-0.005</t>
-  </si>
-  <si>
-    <t>0.749+/-0.014</t>
-  </si>
-  <si>
-    <t>0.416</t>
-  </si>
-  <si>
-    <t>0.827+/-0.006</t>
-  </si>
-  <si>
-    <t>0.681+/-0.014</t>
-  </si>
-  <si>
-    <t>6.835+/-0.199</t>
-  </si>
-  <si>
-    <t>0.678+/-0.004</t>
-  </si>
-  <si>
-    <t>0.659+/-0.0</t>
-  </si>
-  <si>
-    <t>0.61</t>
-  </si>
-  <si>
-    <t>0.691+/-0.004</t>
-  </si>
-  <si>
-    <t>0.673+/-0.009</t>
-  </si>
-  <si>
-    <t>0.376</t>
-  </si>
-  <si>
-    <t>0.641+/-0.004</t>
-  </si>
-  <si>
-    <t>0.621+/-0.014</t>
-  </si>
-  <si>
-    <t>0.407</t>
-  </si>
-  <si>
-    <t>1.309+/-0.005</t>
-  </si>
-  <si>
-    <t>0.788+/-0.002</t>
-  </si>
-  <si>
-    <t>0.743+/-0.0</t>
-  </si>
-  <si>
-    <t>0.668</t>
-  </si>
-  <si>
-    <t>0.877+/-0.004</t>
-  </si>
-  <si>
-    <t>0.821+/-0.016</t>
-  </si>
-  <si>
-    <t>0.426</t>
-  </si>
-  <si>
-    <t>0.669+/-0.003</t>
-  </si>
-  <si>
-    <t>0.623+/-0.015</t>
-  </si>
-  <si>
-    <t>0.227</t>
-  </si>
-  <si>
-    <t>5.488+/-0.016</t>
-  </si>
-  <si>
-    <t>0.658+/-0.004</t>
-  </si>
-  <si>
-    <t>0.607+/-0.0</t>
-  </si>
-  <si>
-    <t>0.568</t>
-  </si>
-  <si>
-    <t>0.644+/-0.006</t>
-  </si>
-  <si>
-    <t>0.598+/-0.016</t>
-  </si>
-  <si>
-    <t>0.366</t>
-  </si>
-  <si>
-    <t>0.704+/-0.01</t>
-  </si>
-  <si>
-    <t>0.654+/-0.015</t>
-  </si>
-  <si>
-    <t>0.53+/-0.007</t>
+    <t>0.632+/-0.009</t>
+  </si>
+  <si>
+    <t>0.618+/-0.027</t>
+  </si>
+  <si>
+    <t>0.398</t>
+  </si>
+  <si>
+    <t>1.558+/-0.02</t>
+  </si>
+  <si>
+    <t>0.785+/-0.002</t>
+  </si>
+  <si>
+    <t>0.735+/-0.0</t>
+  </si>
+  <si>
+    <t>0.875+/-0.004</t>
+  </si>
+  <si>
+    <t>0.811+/-0.011</t>
+  </si>
+  <si>
+    <t>0.666+/-0.005</t>
+  </si>
+  <si>
+    <t>0.614+/-0.022</t>
+  </si>
+  <si>
+    <t>0.23</t>
+  </si>
+  <si>
+    <t>6.342+/-0.061</t>
+  </si>
+  <si>
+    <t>0.668+/-0.005</t>
+  </si>
+  <si>
+    <t>0.613+/-0.0</t>
+  </si>
+  <si>
+    <t>0.572</t>
+  </si>
+  <si>
+    <t>0.656+/-0.007</t>
+  </si>
+  <si>
+    <t>0.605+/-0.017</t>
+  </si>
+  <si>
+    <t>0.708+/-0.009</t>
+  </si>
+  <si>
+    <t>0.654+/-0.021</t>
+  </si>
+  <si>
+    <t>0.524</t>
+  </si>
+  <si>
+    <t>0.709+/-0.013</t>
   </si>
 </sst>
 </file>
@@ -1196,10 +1190,10 @@
         <v>72</v>
       </c>
       <c r="E2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1216,10 +1210,10 @@
         <v>73</v>
       </c>
       <c r="E3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1236,10 +1230,10 @@
         <v>74</v>
       </c>
       <c r="E4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1256,10 +1250,10 @@
         <v>75</v>
       </c>
       <c r="E5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1276,10 +1270,10 @@
         <v>76</v>
       </c>
       <c r="E6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1296,10 +1290,10 @@
         <v>77</v>
       </c>
       <c r="E7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1316,10 +1310,10 @@
         <v>78</v>
       </c>
       <c r="E8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1336,10 +1330,10 @@
         <v>79</v>
       </c>
       <c r="E9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1353,13 +1347,13 @@
         <v>70</v>
       </c>
       <c r="D10" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="E10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1373,13 +1367,13 @@
         <v>71</v>
       </c>
       <c r="D11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1420,16 +1414,16 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="D2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1440,16 +1434,16 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>105</v>
       </c>
       <c r="D3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1457,19 +1451,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C4" t="s">
         <v>106</v>
       </c>
       <c r="D4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1477,19 +1471,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C5" t="s">
         <v>107</v>
       </c>
       <c r="D5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1497,19 +1491,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C6" t="s">
         <v>108</v>
       </c>
       <c r="D6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1523,13 +1517,13 @@
         <v>109</v>
       </c>
       <c r="D7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1537,19 +1531,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C8" t="s">
         <v>110</v>
       </c>
       <c r="D8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1557,19 +1551,19 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C9" t="s">
         <v>111</v>
       </c>
       <c r="D9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1580,16 +1574,16 @@
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>112</v>
+        <v>67</v>
       </c>
       <c r="D10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1597,19 +1591,19 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>104</v>
       </c>
       <c r="C11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -1650,7 +1644,7 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D2" t="s">
         <v>156</v>
@@ -1659,7 +1653,7 @@
         <v>166</v>
       </c>
       <c r="F2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1670,7 +1664,7 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D3" t="s">
         <v>157</v>
@@ -1679,7 +1673,7 @@
         <v>167</v>
       </c>
       <c r="F3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1687,19 +1681,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D4" t="s">
         <v>158</v>
       </c>
       <c r="E4" t="s">
-        <v>168</v>
+        <v>33</v>
       </c>
       <c r="F4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1707,19 +1701,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D5" t="s">
         <v>159</v>
       </c>
       <c r="E5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1727,19 +1721,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D6" t="s">
         <v>160</v>
       </c>
       <c r="E6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1750,16 +1744,16 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D7" t="s">
         <v>161</v>
       </c>
       <c r="E7" t="s">
-        <v>171</v>
+        <v>121</v>
       </c>
       <c r="F7" t="s">
-        <v>181</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1767,19 +1761,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D8" t="s">
         <v>162</v>
       </c>
       <c r="E8" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F8" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1787,19 +1781,19 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D9" t="s">
         <v>163</v>
       </c>
       <c r="E9" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F9" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1810,16 +1804,16 @@
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>154</v>
       </c>
       <c r="D10" t="s">
         <v>164</v>
       </c>
       <c r="E10" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F10" t="s">
-        <v>142</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1836,10 +1830,10 @@
         <v>165</v>
       </c>
       <c r="E11" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F11" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Modeling Stage/Results/IMS/Non temporal models/ensemble_models_no_assign_results_Date_threshold_50_1_replicas_SMOTE.xlsx
+++ b/Data/Modeling Stage/Results/IMS/Non temporal models/ensemble_models_no_assign_results_Date_threshold_50_1_replicas_SMOTE.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="228">
   <si>
     <t>Baseline - Majority Class</t>
   </si>
@@ -61,511 +61,646 @@
     <t>Recall Test</t>
   </si>
   <si>
+    <t>AUC - Train</t>
+  </si>
+  <si>
+    <t>AUC - Validation</t>
+  </si>
+  <si>
+    <t>AUC - Test</t>
+  </si>
+  <si>
     <t>Time</t>
   </si>
   <si>
     <t>0.5+/-0.0</t>
   </si>
   <si>
+    <t>0.799+/-0.0</t>
+  </si>
+  <si>
     <t>0.798</t>
   </si>
   <si>
-    <t>0.05+/-0.15</t>
+    <t>0.0+/-0.0</t>
   </si>
   <si>
     <t>0.0</t>
   </si>
   <si>
-    <t>0.1+/-0.3</t>
+    <t>0.5</t>
   </si>
   <si>
     <t>0.001+/-0.0</t>
   </si>
   <si>
+    <t>0.866+/-0.004</t>
+  </si>
+  <si>
+    <t>0.728+/-0.0</t>
+  </si>
+  <si>
+    <t>0.806</t>
+  </si>
+  <si>
+    <t>0.844+/-0.005</t>
+  </si>
+  <si>
+    <t>0.375+/-0.025</t>
+  </si>
+  <si>
+    <t>0.6</t>
+  </si>
+  <si>
+    <t>0.898+/-0.004</t>
+  </si>
+  <si>
+    <t>0.524+/-0.035</t>
+  </si>
+  <si>
+    <t>0.12</t>
+  </si>
+  <si>
+    <t>0.952+/-0.002</t>
+  </si>
+  <si>
+    <t>0.731+/-0.017</t>
+  </si>
+  <si>
+    <t>0.715</t>
+  </si>
+  <si>
+    <t>12.416+/-0.099</t>
+  </si>
+  <si>
+    <t>0.77+/-0.004</t>
+  </si>
+  <si>
+    <t>0.716+/-0.0</t>
+  </si>
+  <si>
+    <t>0.799</t>
+  </si>
+  <si>
+    <t>0.776+/-0.005</t>
+  </si>
+  <si>
+    <t>0.355+/-0.035</t>
+  </si>
+  <si>
+    <t>0.506</t>
+  </si>
+  <si>
+    <t>0.757+/-0.006</t>
+  </si>
+  <si>
+    <t>0.496+/-0.04</t>
+  </si>
+  <si>
+    <t>0.117</t>
+  </si>
+  <si>
+    <t>0.852+/-0.002</t>
+  </si>
+  <si>
+    <t>0.694+/-0.021</t>
+  </si>
+  <si>
+    <t>0.69</t>
+  </si>
+  <si>
+    <t>2.429+/-0.038</t>
+  </si>
+  <si>
     <t>0.87+/-0.002</t>
   </si>
   <si>
-    <t>0.805+/-0.0</t>
-  </si>
-  <si>
-    <t>0.716</t>
-  </si>
-  <si>
-    <t>0.844+/-0.004</t>
-  </si>
-  <si>
-    <t>0.786+/-0.014</t>
-  </si>
-  <si>
-    <t>0.356</t>
-  </si>
-  <si>
-    <t>0.907+/-0.003</t>
-  </si>
-  <si>
-    <t>0.838+/-0.01</t>
-  </si>
-  <si>
-    <t>0.504</t>
-  </si>
-  <si>
-    <t>9.539+/-0.401</t>
-  </si>
-  <si>
-    <t>0.751+/-0.003</t>
-  </si>
-  <si>
-    <t>0.742+/-0.0</t>
-  </si>
-  <si>
-    <t>0.673</t>
-  </si>
-  <si>
-    <t>0.747+/-0.003</t>
-  </si>
-  <si>
-    <t>0.739+/-0.014</t>
-  </si>
-  <si>
-    <t>0.306</t>
-  </si>
-  <si>
-    <t>0.759+/-0.004</t>
-  </si>
-  <si>
-    <t>0.749+/-0.021</t>
-  </si>
-  <si>
-    <t>0.488</t>
-  </si>
-  <si>
-    <t>1.744+/-0.084</t>
-  </si>
-  <si>
-    <t>0.86+/-0.003</t>
-  </si>
-  <si>
-    <t>0.832+/-0.0</t>
-  </si>
-  <si>
-    <t>0.751</t>
-  </si>
-  <si>
-    <t>0.878+/-0.004</t>
-  </si>
-  <si>
-    <t>0.848+/-0.013</t>
-  </si>
-  <si>
-    <t>0.378</t>
-  </si>
-  <si>
-    <t>0.837+/-0.004</t>
-  </si>
-  <si>
-    <t>0.809+/-0.017</t>
-  </si>
-  <si>
-    <t>0.365</t>
-  </si>
-  <si>
-    <t>7.379+/-0.593</t>
-  </si>
-  <si>
-    <t>0.709+/-0.002</t>
-  </si>
-  <si>
-    <t>0.689+/-0.0</t>
-  </si>
-  <si>
-    <t>0.637</t>
-  </si>
-  <si>
-    <t>0.696+/-0.003</t>
-  </si>
-  <si>
-    <t>0.677+/-0.013</t>
-  </si>
-  <si>
-    <t>0.3</t>
-  </si>
-  <si>
-    <t>0.741+/-0.007</t>
-  </si>
-  <si>
-    <t>0.721+/-0.015</t>
-  </si>
-  <si>
-    <t>0.603</t>
-  </si>
-  <si>
-    <t>1.041+/-0.019</t>
+    <t>0.783+/-0.0</t>
+  </si>
+  <si>
+    <t>0.805</t>
+  </si>
+  <si>
+    <t>0.908+/-0.003</t>
+  </si>
+  <si>
+    <t>0.449+/-0.039</t>
+  </si>
+  <si>
+    <t>0.554</t>
+  </si>
+  <si>
+    <t>0.823+/-0.002</t>
+  </si>
+  <si>
+    <t>0.346+/-0.038</t>
+  </si>
+  <si>
+    <t>0.165</t>
+  </si>
+  <si>
+    <t>0.943+/-0.001</t>
+  </si>
+  <si>
+    <t>0.727+/-0.019</t>
+  </si>
+  <si>
+    <t>0.714</t>
+  </si>
+  <si>
+    <t>9.666+/-0.123</t>
+  </si>
+  <si>
+    <t>0.712+/-0.002</t>
+  </si>
+  <si>
+    <t>0.654+/-0.0</t>
+  </si>
+  <si>
+    <t>0.802</t>
+  </si>
+  <si>
+    <t>0.701+/-0.005</t>
+  </si>
+  <si>
+    <t>0.319+/-0.02</t>
+  </si>
+  <si>
+    <t>0.571</t>
+  </si>
+  <si>
+    <t>0.74+/-0.011</t>
+  </si>
+  <si>
+    <t>0.634+/-0.065</t>
+  </si>
+  <si>
+    <t>0.064</t>
+  </si>
+  <si>
+    <t>0.793+/-0.002</t>
+  </si>
+  <si>
+    <t>0.715+/-0.023</t>
+  </si>
+  <si>
+    <t>0.686</t>
+  </si>
+  <si>
+    <t>1.107+/-0.023</t>
+  </si>
+  <si>
+    <t>0.85+/-0.0</t>
   </si>
   <si>
     <t>0.85</t>
   </si>
   <si>
-    <t>0.889+/-0.002</t>
-  </si>
-  <si>
-    <t>0.834+/-0.0</t>
-  </si>
-  <si>
-    <t>0.756</t>
-  </si>
-  <si>
-    <t>0.867+/-0.003</t>
-  </si>
-  <si>
-    <t>0.815+/-0.011</t>
-  </si>
-  <si>
-    <t>0.301</t>
-  </si>
-  <si>
-    <t>0.92+/-0.002</t>
-  </si>
-  <si>
-    <t>0.866+/-0.014</t>
-  </si>
-  <si>
-    <t>0.473</t>
-  </si>
-  <si>
-    <t>10.059+/-0.071</t>
-  </si>
-  <si>
-    <t>0.773+/-0.004</t>
+    <t>0.9+/-0.003</t>
   </si>
   <si>
     <t>0.765+/-0.0</t>
   </si>
   <si>
-    <t>0.713</t>
-  </si>
-  <si>
-    <t>0.768+/-0.005</t>
-  </si>
-  <si>
-    <t>0.758+/-0.012</t>
-  </si>
-  <si>
-    <t>0.254</t>
-  </si>
-  <si>
-    <t>0.784+/-0.006</t>
-  </si>
-  <si>
-    <t>0.778+/-0.015</t>
-  </si>
-  <si>
-    <t>1.976+/-0.028</t>
-  </si>
-  <si>
-    <t>0.883+/-0.002</t>
-  </si>
-  <si>
-    <t>0.863+/-0.0</t>
-  </si>
-  <si>
-    <t>0.799</t>
-  </si>
-  <si>
-    <t>0.893+/-0.003</t>
-  </si>
-  <si>
-    <t>0.874+/-0.009</t>
-  </si>
-  <si>
-    <t>0.346</t>
-  </si>
-  <si>
-    <t>0.869+/-0.002</t>
-  </si>
-  <si>
-    <t>0.848+/-0.006</t>
-  </si>
-  <si>
-    <t>0.384</t>
-  </si>
-  <si>
-    <t>8.053+/-0.067</t>
-  </si>
-  <si>
-    <t>0.725+/-0.003</t>
-  </si>
-  <si>
-    <t>0.709+/-0.0</t>
-  </si>
-  <si>
-    <t>0.664</t>
-  </si>
-  <si>
-    <t>0.725+/-0.002</t>
-  </si>
-  <si>
-    <t>0.708+/-0.015</t>
-  </si>
-  <si>
-    <t>0.234</t>
-  </si>
-  <si>
-    <t>0.727+/-0.009</t>
-  </si>
-  <si>
-    <t>0.711+/-0.016</t>
-  </si>
-  <si>
-    <t>0.545</t>
-  </si>
-  <si>
-    <t>0.827+/-0.016</t>
+    <t>0.855</t>
+  </si>
+  <si>
+    <t>0.876+/-0.006</t>
+  </si>
+  <si>
+    <t>0.315+/-0.022</t>
+  </si>
+  <si>
+    <t>0.609</t>
+  </si>
+  <si>
+    <t>0.932+/-0.005</t>
+  </si>
+  <si>
+    <t>0.483+/-0.042</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>0.963+/-0.001</t>
+  </si>
+  <si>
+    <t>0.741+/-0.02</t>
   </si>
   <si>
     <t>0.723</t>
   </si>
   <si>
-    <t>0.15+/-0.229</t>
-  </si>
-  <si>
-    <t>0.3+/-0.458</t>
-  </si>
-  <si>
-    <t>0.0+/-0.0</t>
-  </si>
-  <si>
-    <t>0.751+/-0.0</t>
-  </si>
-  <si>
-    <t>0.68</t>
-  </si>
-  <si>
-    <t>0.901+/-0.002</t>
-  </si>
-  <si>
-    <t>0.789+/-0.013</t>
-  </si>
-  <si>
-    <t>0.397</t>
-  </si>
-  <si>
-    <t>0.828+/-0.004</t>
-  </si>
-  <si>
-    <t>0.684+/-0.024</t>
-  </si>
-  <si>
-    <t>8.546+/-0.054</t>
-  </si>
-  <si>
-    <t>0.701+/-0.004</t>
-  </si>
-  <si>
-    <t>0.691+/-0.0</t>
-  </si>
-  <si>
-    <t>0.656</t>
-  </si>
-  <si>
-    <t>0.72+/-0.005</t>
-  </si>
-  <si>
-    <t>0.708+/-0.016</t>
-  </si>
-  <si>
-    <t>0.392</t>
-  </si>
-  <si>
-    <t>0.657+/-0.009</t>
-  </si>
-  <si>
-    <t>0.649+/-0.023</t>
-  </si>
-  <si>
-    <t>0.441</t>
-  </si>
-  <si>
-    <t>1.568+/-0.077</t>
-  </si>
-  <si>
-    <t>0.806+/-0.002</t>
-  </si>
-  <si>
-    <t>0.768+/-0.0</t>
-  </si>
-  <si>
-    <t>0.699</t>
-  </si>
-  <si>
-    <t>0.901+/-0.004</t>
-  </si>
-  <si>
-    <t>0.853+/-0.016</t>
-  </si>
-  <si>
-    <t>0.413</t>
-  </si>
-  <si>
-    <t>0.689+/-0.005</t>
-  </si>
-  <si>
-    <t>0.647+/-0.018</t>
-  </si>
-  <si>
-    <t>0.204</t>
-  </si>
-  <si>
-    <t>6.203+/-0.27</t>
-  </si>
-  <si>
-    <t>0.664+/-0.003</t>
-  </si>
-  <si>
-    <t>0.623+/-0.0</t>
+    <t>13.331+/-0.077</t>
+  </si>
+  <si>
+    <t>0.72+/-0.0</t>
+  </si>
+  <si>
+    <t>0.848</t>
+  </si>
+  <si>
+    <t>0.77+/-0.006</t>
+  </si>
+  <si>
+    <t>0.274+/-0.02</t>
+  </si>
+  <si>
+    <t>0.464</t>
+  </si>
+  <si>
+    <t>0.786+/-0.005</t>
+  </si>
+  <si>
+    <t>0.525+/-0.049</t>
+  </si>
+  <si>
+    <t>0.093</t>
+  </si>
+  <si>
+    <t>0.858+/-0.003</t>
+  </si>
+  <si>
+    <t>0.708+/-0.023</t>
+  </si>
+  <si>
+    <t>0.693</t>
+  </si>
+  <si>
+    <t>2.837+/-0.054</t>
+  </si>
+  <si>
+    <t>0.886+/-0.003</t>
+  </si>
+  <si>
+    <t>0.804+/-0.0</t>
+  </si>
+  <si>
+    <t>0.851</t>
+  </si>
+  <si>
+    <t>0.896+/-0.006</t>
+  </si>
+  <si>
+    <t>0.356+/-0.039</t>
+  </si>
+  <si>
+    <t>0.514</t>
+  </si>
+  <si>
+    <t>0.873+/-0.003</t>
+  </si>
+  <si>
+    <t>0.381+/-0.045</t>
+  </si>
+  <si>
+    <t>0.129</t>
+  </si>
+  <si>
+    <t>0.954+/-0.001</t>
+  </si>
+  <si>
+    <t>0.734+/-0.023</t>
+  </si>
+  <si>
+    <t>0.717</t>
+  </si>
+  <si>
+    <t>11.38+/-0.067</t>
+  </si>
+  <si>
+    <t>0.721+/-0.005</t>
+  </si>
+  <si>
+    <t>0.703+/-0.0</t>
+  </si>
+  <si>
+    <t>0.726+/-0.004</t>
+  </si>
+  <si>
+    <t>0.276+/-0.023</t>
+  </si>
+  <si>
+    <t>0.55</t>
+  </si>
+  <si>
+    <t>0.708+/-0.019</t>
+  </si>
+  <si>
+    <t>0.604+/-0.036</t>
+  </si>
+  <si>
+    <t>0.039</t>
+  </si>
+  <si>
+    <t>0.809+/-0.003</t>
+  </si>
+  <si>
+    <t>0.727+/-0.026</t>
+  </si>
+  <si>
+    <t>0.7</t>
+  </si>
+  <si>
+    <t>1.182+/-0.021</t>
+  </si>
+  <si>
+    <t>0.723+/-0.0</t>
+  </si>
+  <si>
+    <t>0.872+/-0.008</t>
+  </si>
+  <si>
+    <t>0.672+/-0.0</t>
+  </si>
+  <si>
+    <t>0.732</t>
+  </si>
+  <si>
+    <t>0.9+/-0.005</t>
+  </si>
+  <si>
+    <t>0.391+/-0.03</t>
+  </si>
+  <si>
+    <t>0.674</t>
+  </si>
+  <si>
+    <t>0.838+/-0.016</t>
+  </si>
+  <si>
+    <t>0.329+/-0.027</t>
+  </si>
+  <si>
+    <t>0.06</t>
+  </si>
+  <si>
+    <t>0.948+/-0.003</t>
+  </si>
+  <si>
+    <t>0.612+/-0.019</t>
+  </si>
+  <si>
+    <t>0.625</t>
+  </si>
+  <si>
+    <t>11.289+/-0.125</t>
+  </si>
+  <si>
+    <t>0.699+/-0.002</t>
+  </si>
+  <si>
+    <t>0.642+/-0.0</t>
+  </si>
+  <si>
+    <t>0.724</t>
+  </si>
+  <si>
+    <t>0.717+/-0.004</t>
+  </si>
+  <si>
+    <t>0.368+/-0.023</t>
+  </si>
+  <si>
+    <t>0.516</t>
+  </si>
+  <si>
+    <t>0.657+/-0.008</t>
+  </si>
+  <si>
+    <t>0.405+/-0.032</t>
+  </si>
+  <si>
+    <t>0.062</t>
+  </si>
+  <si>
+    <t>0.775+/-0.002</t>
+  </si>
+  <si>
+    <t>0.605+/-0.018</t>
+  </si>
+  <si>
+    <t>0.607</t>
+  </si>
+  <si>
+    <t>2.166+/-0.021</t>
+  </si>
+  <si>
+    <t>0.808+/-0.004</t>
+  </si>
+  <si>
+    <t>0.7+/-0.0</t>
+  </si>
+  <si>
+    <t>0.726</t>
+  </si>
+  <si>
+    <t>0.891+/-0.005</t>
+  </si>
+  <si>
+    <t>0.427+/-0.03</t>
+  </si>
+  <si>
+    <t>0.534</t>
+  </si>
+  <si>
+    <t>0.701+/-0.007</t>
+  </si>
+  <si>
+    <t>0.242+/-0.022</t>
+  </si>
+  <si>
+    <t>0.076</t>
+  </si>
+  <si>
+    <t>0.887+/-0.001</t>
+  </si>
+  <si>
+    <t>0.603+/-0.015</t>
+  </si>
+  <si>
+    <t>8.665+/-0.084</t>
+  </si>
+  <si>
+    <t>0.674+/-0.006</t>
+  </si>
+  <si>
+    <t>0.589+/-0.0</t>
+  </si>
+  <si>
+    <t>0.666+/-0.006</t>
+  </si>
+  <si>
+    <t>0.346+/-0.018</t>
+  </si>
+  <si>
+    <t>0.727</t>
+  </si>
+  <si>
+    <t>0.701+/-0.015</t>
+  </si>
+  <si>
+    <t>0.544+/-0.035</t>
+  </si>
+  <si>
+    <t>0.016</t>
+  </si>
+  <si>
+    <t>0.746+/-0.004</t>
+  </si>
+  <si>
+    <t>0.612+/-0.02</t>
+  </si>
+  <si>
+    <t>0.621</t>
+  </si>
+  <si>
+    <t>1.03+/-0.028</t>
+  </si>
+  <si>
+    <t>0.692+/-0.0</t>
+  </si>
+  <si>
+    <t>0.692</t>
+  </si>
+  <si>
+    <t>0.864+/-0.004</t>
+  </si>
+  <si>
+    <t>0.641+/-0.0</t>
+  </si>
+  <si>
+    <t>0.884+/-0.006</t>
+  </si>
+  <si>
+    <t>0.4+/-0.023</t>
+  </si>
+  <si>
+    <t>0.66</t>
+  </si>
+  <si>
+    <t>0.838+/-0.005</t>
+  </si>
+  <si>
+    <t>0.328+/-0.027</t>
+  </si>
+  <si>
+    <t>0.054</t>
+  </si>
+  <si>
+    <t>0.941+/-0.003</t>
+  </si>
+  <si>
+    <t>0.586+/-0.011</t>
+  </si>
+  <si>
+    <t>0.599</t>
+  </si>
+  <si>
+    <t>10.9+/-0.1</t>
+  </si>
+  <si>
+    <t>0.678+/-0.003</t>
+  </si>
+  <si>
+    <t>0.606+/-0.0</t>
+  </si>
+  <si>
+    <t>0.692+/-0.004</t>
+  </si>
+  <si>
+    <t>0.372+/-0.014</t>
+  </si>
+  <si>
+    <t>0.641+/-0.007</t>
+  </si>
+  <si>
+    <t>0.403+/-0.028</t>
+  </si>
+  <si>
+    <t>0.066</t>
+  </si>
+  <si>
+    <t>0.751+/-0.002</t>
+  </si>
+  <si>
+    <t>0.583+/-0.019</t>
+  </si>
+  <si>
+    <t>0.584</t>
+  </si>
+  <si>
+    <t>2.097+/-0.045</t>
+  </si>
+  <si>
+    <t>0.789+/-0.003</t>
+  </si>
+  <si>
+    <t>0.665+/-0.0</t>
+  </si>
+  <si>
+    <t>0.694</t>
+  </si>
+  <si>
+    <t>0.881+/-0.006</t>
+  </si>
+  <si>
+    <t>0.414+/-0.026</t>
+  </si>
+  <si>
+    <t>0.521</t>
+  </si>
+  <si>
+    <t>0.667+/-0.007</t>
+  </si>
+  <si>
+    <t>0.212+/-0.019</t>
+  </si>
+  <si>
+    <t>0.086</t>
+  </si>
+  <si>
+    <t>0.581+/-0.017</t>
+  </si>
+  <si>
+    <t>0.578</t>
+  </si>
+  <si>
+    <t>8.274+/-0.1</t>
+  </si>
+  <si>
+    <t>0.664+/-0.006</t>
+  </si>
+  <si>
+    <t>0.563+/-0.0</t>
+  </si>
+  <si>
+    <t>0.649+/-0.008</t>
+  </si>
+  <si>
+    <t>0.363+/-0.01</t>
+  </si>
+  <si>
+    <t>0.712+/-0.01</t>
+  </si>
+  <si>
+    <t>0.558+/-0.032</t>
+  </si>
+  <si>
+    <t>0.021</t>
+  </si>
+  <si>
+    <t>0.738+/-0.005</t>
+  </si>
+  <si>
+    <t>0.59+/-0.012</t>
   </si>
   <si>
     <t>0.601</t>
   </si>
   <si>
-    <t>0.658+/-0.003</t>
-  </si>
-  <si>
-    <t>0.619+/-0.01</t>
-  </si>
-  <si>
-    <t>0.354</t>
-  </si>
-  <si>
-    <t>0.682+/-0.007</t>
-  </si>
-  <si>
-    <t>0.644+/-0.018</t>
-  </si>
-  <si>
-    <t>0.534</t>
-  </si>
-  <si>
-    <t>0.944+/-0.027</t>
-  </si>
-  <si>
-    <t>0.692</t>
-  </si>
-  <si>
-    <t>0.25+/-0.25</t>
-  </si>
-  <si>
-    <t>0.5+/-0.5</t>
-  </si>
-  <si>
-    <t>0.854+/-0.004</t>
-  </si>
-  <si>
-    <t>0.724+/-0.0</t>
-  </si>
-  <si>
-    <t>0.652</t>
-  </si>
-  <si>
-    <t>0.881+/-0.005</t>
-  </si>
-  <si>
-    <t>0.753+/-0.014</t>
-  </si>
-  <si>
-    <t>0.416</t>
-  </si>
-  <si>
-    <t>0.818+/-0.006</t>
-  </si>
-  <si>
-    <t>0.666+/-0.016</t>
-  </si>
-  <si>
-    <t>0.323</t>
-  </si>
-  <si>
-    <t>8.353+/-0.459</t>
-  </si>
-  <si>
-    <t>0.673+/-0.002</t>
-  </si>
-  <si>
-    <t>0.66+/-0.0</t>
-  </si>
-  <si>
-    <t>0.619</t>
-  </si>
-  <si>
-    <t>0.689+/-0.003</t>
-  </si>
-  <si>
-    <t>0.674+/-0.01</t>
-  </si>
-  <si>
-    <t>0.385</t>
-  </si>
-  <si>
-    <t>0.632+/-0.009</t>
-  </si>
-  <si>
-    <t>0.618+/-0.027</t>
-  </si>
-  <si>
-    <t>0.398</t>
-  </si>
-  <si>
-    <t>1.558+/-0.02</t>
-  </si>
-  <si>
-    <t>0.785+/-0.002</t>
-  </si>
-  <si>
-    <t>0.735+/-0.0</t>
-  </si>
-  <si>
-    <t>0.875+/-0.004</t>
-  </si>
-  <si>
-    <t>0.811+/-0.011</t>
-  </si>
-  <si>
-    <t>0.666+/-0.005</t>
-  </si>
-  <si>
-    <t>0.614+/-0.022</t>
-  </si>
-  <si>
-    <t>0.23</t>
-  </si>
-  <si>
-    <t>6.342+/-0.061</t>
-  </si>
-  <si>
-    <t>0.668+/-0.005</t>
-  </si>
-  <si>
-    <t>0.613+/-0.0</t>
-  </si>
-  <si>
-    <t>0.572</t>
-  </si>
-  <si>
-    <t>0.656+/-0.007</t>
-  </si>
-  <si>
-    <t>0.605+/-0.017</t>
-  </si>
-  <si>
-    <t>0.708+/-0.009</t>
-  </si>
-  <si>
-    <t>0.654+/-0.021</t>
-  </si>
-  <si>
-    <t>0.524</t>
-  </si>
-  <si>
-    <t>0.709+/-0.013</t>
+    <t>0.998+/-0.024</t>
   </si>
 </sst>
 </file>
@@ -923,7 +1058,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -951,19 +1086,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F2" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -971,19 +1106,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E3" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F3" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -991,19 +1126,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="F4" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1011,19 +1146,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="F5" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1031,19 +1166,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="F6" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1051,19 +1186,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="F7" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1071,19 +1206,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E8" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="F8" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1091,19 +1226,19 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E9" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="F9" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1111,19 +1246,19 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E10" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="F10" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1131,19 +1266,79 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" t="s">
         <v>50</v>
       </c>
-      <c r="F11" t="s">
-        <v>60</v>
+      <c r="E14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1153,7 +1348,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1181,19 +1376,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="D2" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="E2" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="F2" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1201,19 +1396,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="D3" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="E3" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="F3" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1221,19 +1416,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="D4" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="E4" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="F4" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1241,19 +1436,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="D5" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="E5" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="F5" t="s">
-        <v>94</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1261,19 +1456,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="D6" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="E6" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="F6" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1281,19 +1476,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="D7" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="E7" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="F7" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1301,19 +1496,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="D8" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="E8" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="F8" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1321,19 +1516,19 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="D9" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="E9" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="F9" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1341,19 +1536,19 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="D10" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="E10" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="F10" t="s">
-        <v>99</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1361,19 +1556,79 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="D11" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="E11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" t="s">
+        <v>101</v>
+      </c>
+      <c r="E12" t="s">
+        <v>114</v>
+      </c>
+      <c r="F12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
         <v>90</v>
       </c>
-      <c r="F11" t="s">
-        <v>100</v>
+      <c r="D13" t="s">
+        <v>102</v>
+      </c>
+      <c r="E13" t="s">
+        <v>115</v>
+      </c>
+      <c r="F13" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E14" t="s">
+        <v>116</v>
+      </c>
+      <c r="F14" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -1383,7 +1638,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1411,19 +1666,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>87</v>
+        <v>130</v>
       </c>
       <c r="D2" t="s">
-        <v>113</v>
+        <v>143</v>
       </c>
       <c r="E2" t="s">
-        <v>123</v>
+        <v>156</v>
       </c>
       <c r="F2" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1431,19 +1686,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>129</v>
       </c>
       <c r="C3" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="D3" t="s">
-        <v>114</v>
+        <v>144</v>
       </c>
       <c r="E3" t="s">
-        <v>124</v>
+        <v>157</v>
       </c>
       <c r="F3" t="s">
-        <v>134</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1451,19 +1706,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="C4" t="s">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="D4" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="E4" t="s">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="F4" t="s">
-        <v>135</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1471,19 +1726,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="D5" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="E5" t="s">
-        <v>126</v>
+        <v>159</v>
       </c>
       <c r="F5" t="s">
-        <v>136</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1491,19 +1746,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="D6" t="s">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="E6" t="s">
-        <v>127</v>
+        <v>160</v>
       </c>
       <c r="F6" t="s">
-        <v>137</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1511,19 +1766,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="D7" t="s">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="E7" t="s">
-        <v>128</v>
+        <v>161</v>
       </c>
       <c r="F7" t="s">
-        <v>138</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1531,19 +1786,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>103</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="D8" t="s">
-        <v>119</v>
+        <v>149</v>
       </c>
       <c r="E8" t="s">
-        <v>129</v>
+        <v>162</v>
       </c>
       <c r="F8" t="s">
-        <v>139</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1551,19 +1806,19 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>103</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="D9" t="s">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="E9" t="s">
-        <v>130</v>
+        <v>163</v>
       </c>
       <c r="F9" t="s">
-        <v>140</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1571,19 +1826,19 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>67</v>
+        <v>138</v>
       </c>
       <c r="D10" t="s">
-        <v>121</v>
+        <v>151</v>
       </c>
       <c r="E10" t="s">
-        <v>131</v>
+        <v>164</v>
       </c>
       <c r="F10" t="s">
-        <v>141</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1591,19 +1846,79 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>104</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="D11" t="s">
-        <v>122</v>
+        <v>152</v>
       </c>
       <c r="E11" t="s">
-        <v>132</v>
+        <v>165</v>
       </c>
       <c r="F11" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D12" t="s">
+        <v>153</v>
+      </c>
+      <c r="E12" t="s">
+        <v>166</v>
+      </c>
+      <c r="F12" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>141</v>
+      </c>
+      <c r="D13" t="s">
+        <v>154</v>
+      </c>
+      <c r="E13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
         <v>142</v>
+      </c>
+      <c r="D14" t="s">
+        <v>155</v>
+      </c>
+      <c r="E14" t="s">
+        <v>167</v>
+      </c>
+      <c r="F14" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -1613,7 +1928,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1641,19 +1956,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>146</v>
+        <v>182</v>
       </c>
       <c r="D2" t="s">
-        <v>156</v>
+        <v>194</v>
       </c>
       <c r="E2" t="s">
-        <v>166</v>
+        <v>205</v>
       </c>
       <c r="F2" t="s">
-        <v>174</v>
+        <v>217</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1661,19 +1976,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>180</v>
       </c>
       <c r="C3" t="s">
-        <v>147</v>
+        <v>183</v>
       </c>
       <c r="D3" t="s">
-        <v>157</v>
+        <v>195</v>
       </c>
       <c r="E3" t="s">
-        <v>167</v>
+        <v>206</v>
       </c>
       <c r="F3" t="s">
-        <v>175</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1681,19 +1996,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>143</v>
+        <v>181</v>
       </c>
       <c r="C4" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="D4" t="s">
-        <v>158</v>
+        <v>102</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>207</v>
       </c>
       <c r="F4" t="s">
-        <v>176</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1701,19 +2016,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>144</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>149</v>
+        <v>184</v>
       </c>
       <c r="D5" t="s">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="E5" t="s">
-        <v>168</v>
+        <v>208</v>
       </c>
       <c r="F5" t="s">
-        <v>177</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1721,19 +2036,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>144</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>150</v>
+        <v>185</v>
       </c>
       <c r="D6" t="s">
-        <v>160</v>
+        <v>197</v>
       </c>
       <c r="E6" t="s">
-        <v>169</v>
+        <v>209</v>
       </c>
       <c r="F6" t="s">
-        <v>178</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1741,19 +2056,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>151</v>
+        <v>186</v>
       </c>
       <c r="D7" t="s">
-        <v>161</v>
+        <v>109</v>
       </c>
       <c r="E7" t="s">
-        <v>121</v>
+        <v>210</v>
       </c>
       <c r="F7" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1761,19 +2076,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>145</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>152</v>
+        <v>187</v>
       </c>
       <c r="D8" t="s">
-        <v>162</v>
+        <v>198</v>
       </c>
       <c r="E8" t="s">
-        <v>170</v>
+        <v>211</v>
       </c>
       <c r="F8" t="s">
-        <v>179</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1781,19 +2096,19 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>145</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>153</v>
+        <v>188</v>
       </c>
       <c r="D9" t="s">
-        <v>163</v>
+        <v>199</v>
       </c>
       <c r="E9" t="s">
-        <v>171</v>
+        <v>212</v>
       </c>
       <c r="F9" t="s">
-        <v>180</v>
+        <v>222</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1801,19 +2116,19 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>154</v>
+        <v>189</v>
       </c>
       <c r="D10" t="s">
-        <v>164</v>
+        <v>200</v>
       </c>
       <c r="E10" t="s">
-        <v>172</v>
+        <v>213</v>
       </c>
       <c r="F10" t="s">
-        <v>181</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1821,19 +2136,79 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>155</v>
+        <v>190</v>
       </c>
       <c r="D11" t="s">
-        <v>165</v>
+        <v>201</v>
       </c>
       <c r="E11" t="s">
-        <v>173</v>
+        <v>51</v>
       </c>
       <c r="F11" t="s">
-        <v>182</v>
+        <v>224</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>191</v>
+      </c>
+      <c r="D12" t="s">
+        <v>202</v>
+      </c>
+      <c r="E12" t="s">
+        <v>214</v>
+      </c>
+      <c r="F12" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>192</v>
+      </c>
+      <c r="D13" t="s">
+        <v>203</v>
+      </c>
+      <c r="E13" t="s">
+        <v>215</v>
+      </c>
+      <c r="F13" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>193</v>
+      </c>
+      <c r="D14" t="s">
+        <v>204</v>
+      </c>
+      <c r="E14" t="s">
+        <v>216</v>
+      </c>
+      <c r="F14" t="s">
+        <v>227</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Modeling Stage/Results/IMS/Non temporal models/ensemble_models_no_assign_results_Date_threshold_50_1_replicas_SMOTE.xlsx
+++ b/Data/Modeling Stage/Results/IMS/Non temporal models/ensemble_models_no_assign_results_Date_threshold_50_1_replicas_SMOTE.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kisshin\Desktop\Mestrado Ricardo\Thesis\Msc_thesis\Data\Modeling Stage\Results\IMS\Non temporal models\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B124F0-C17D-4A39-BB80-485778F5FEA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-27660" yWindow="150" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="exam_fail" sheetId="1" r:id="rId1"/>
@@ -12,7 +18,7 @@
     <sheet name="exam_gifted" sheetId="3" r:id="rId3"/>
     <sheet name="final_gifted" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -706,8 +712,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -770,11 +776,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -816,7 +830,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -848,9 +862,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -882,6 +914,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1057,14 +1107,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1081,7 +1131,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1101,7 +1151,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1121,7 +1171,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1141,7 +1191,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1161,7 +1211,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1181,7 +1231,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1201,7 +1251,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -1221,7 +1271,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -1241,7 +1291,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -1261,7 +1311,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -1281,7 +1331,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
@@ -1301,7 +1351,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -1321,7 +1371,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
@@ -1347,14 +1397,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1371,7 +1421,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1391,7 +1441,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1411,7 +1461,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1431,7 +1481,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1451,7 +1501,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1471,7 +1521,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1491,7 +1541,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -1511,7 +1561,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -1531,7 +1581,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -1551,7 +1601,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -1571,7 +1621,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
@@ -1591,7 +1641,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -1611,7 +1661,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
@@ -1637,14 +1687,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1661,7 +1711,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1681,7 +1731,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1701,7 +1751,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1721,7 +1771,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1741,7 +1791,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1761,7 +1811,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1781,7 +1831,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -1801,7 +1851,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -1821,7 +1871,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -1841,7 +1891,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -1861,7 +1911,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
@@ -1881,7 +1931,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -1901,7 +1951,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
@@ -1927,14 +1977,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1951,7 +2001,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1971,7 +2021,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1991,7 +2041,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -2011,7 +2061,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -2031,7 +2081,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -2051,7 +2101,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -2071,7 +2121,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -2091,7 +2141,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -2111,7 +2161,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -2131,7 +2181,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -2151,7 +2201,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
@@ -2171,7 +2221,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -2191,7 +2241,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
